--- a/Experiment 6 - Outdoors 2.4GHz/Outdoors experiment 2.4GHz.xlsx
+++ b/Experiment 6 - Outdoors 2.4GHz/Outdoors experiment 2.4GHz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/CE301 - Individual project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6bcb7461c737c24/Documents/3rd Year - Final/GitLab/Experiment 6 - Outdoors 2.4GHz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{05206E0A-4000-4C6C-91D2-CA9653A2BC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6B66969B-1BAB-42D9-B156-8A2C0C0A50A4}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{05206E0A-4000-4C6C-91D2-CA9653A2BC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D200E5FC-3028-485E-A8CE-702EC9A71F49}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{854CA194-FEA3-4FE1-B903-D0461776F831}"/>
   </bookViews>
@@ -19,9 +19,6 @@
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$4:$A$15</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$3</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$4:$B$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4:$A$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$4:$B$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,9 +56,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Signal strength</t>
-  </si>
-  <si>
     <t>Garden - North West</t>
   </si>
   <si>
@@ -87,6 +81,9 @@
   </si>
   <si>
     <t>Signal Testing Outdoors 2.4GHz</t>
+  </si>
+  <si>
+    <t>Signal strength (dBm)</t>
   </si>
 </sst>
 </file>
@@ -146,10 +143,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -187,8 +184,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1369D4BB-BDE1-4A91-8ACE-E2746BCC1D5D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Signal strength</cx:v>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Signal strength (dBm)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -877,6 +874,20 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D295062D-2FBB-415B-A196-A3FAC6FEF19A}" name="Table1" displayName="Table1" ref="A3:B15" totalsRowShown="0">
+  <autoFilter ref="A3:B15" xr:uid="{729E603C-44FC-41A8-9214-4AAB82557423}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{09C5A46B-3E8E-4CD3-A534-EC461CBBF89F}" name="Area"/>
+    <tableColumn id="2" xr3:uid="{5F15FDA4-FC45-49BB-9D4D-69139AD8F280}" name="Signal strength (dBm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1179,18 +1190,18 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A3" sqref="A3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1246,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>-67</v>
@@ -1243,7 +1254,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>-74</v>
@@ -1251,7 +1262,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>-71</v>
@@ -1259,7 +1270,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>-78</v>
@@ -1267,7 +1278,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>-83</v>
@@ -1275,7 +1286,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>-79</v>
@@ -1283,7 +1294,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>-88</v>
@@ -1291,7 +1302,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>-94</v>
@@ -1300,5 +1311,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>